--- a/schematics/Pinouts.xlsx
+++ b/schematics/Pinouts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petros\projects\maho-mh500w-cnc\schematics-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petros\projects\maho\schematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9008BD-229E-40CF-A59E-E83B8C1BDF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC67DCC-5007-4156-B4F9-0D607A267E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="163">
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>8M1</t>
-  </si>
-  <si>
-    <t>X Axis Servo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>19X7</t>
   </si>
@@ -45,9 +36,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>8B1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -80,9 +68,6 @@
     <t>white</t>
   </si>
   <si>
-    <t>8B2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -115,12 +100,6 @@
     <t>brown</t>
   </si>
   <si>
-    <t>8S1</t>
-  </si>
-  <si>
-    <t>X Axis Limit Switch</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -153,9 +132,6 @@
     <t>green</t>
   </si>
   <si>
-    <t>8S2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -188,15 +164,6 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>10M1</t>
-  </si>
-  <si>
-    <t>Z Axis Servo</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -229,9 +196,6 @@
     <t>gray</t>
   </si>
   <si>
-    <t>10B1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -264,9 +228,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>10B2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -299,12 +260,6 @@
     <t>blue</t>
   </si>
   <si>
-    <t>10S1</t>
-  </si>
-  <si>
-    <t>Z Axis Limit Switch</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -337,9 +292,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>10S2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -369,18 +321,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>9M1</t>
-  </si>
-  <si>
-    <t>Y Axis Servo</t>
-  </si>
-  <si>
-    <t>9B1</t>
-  </si>
-  <si>
     <t>19X6</t>
   </si>
   <si>
@@ -390,9 +330,6 @@
     <t>Relay</t>
   </si>
   <si>
-    <t>9B2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -445,12 +382,6 @@
     </r>
   </si>
   <si>
-    <t>9Y1</t>
-  </si>
-  <si>
-    <t>Y Axis Brake</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -503,12 +434,6 @@
     </r>
   </si>
   <si>
-    <t>9S1</t>
-  </si>
-  <si>
-    <t>Y Axis Limit Switch</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -561,9 +486,6 @@
     </r>
   </si>
   <si>
-    <t>9S2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -668,12 +590,6 @@
     </r>
   </si>
   <si>
-    <t>1M1</t>
-  </si>
-  <si>
-    <t>Spindle Motor</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -726,12 +642,6 @@
     </r>
   </si>
   <si>
-    <t>1Y1</t>
-  </si>
-  <si>
-    <t>Spindle Motor Brake</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -784,12 +694,6 @@
     </r>
   </si>
   <si>
-    <t>2M1</t>
-  </si>
-  <si>
-    <t>Cutting Fluid Pump</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -819,12 +723,6 @@
     <t>4V1 / 4K1</t>
   </si>
   <si>
-    <t>3M1</t>
-  </si>
-  <si>
-    <t>Hydraylic Pump</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -848,12 +746,6 @@
     </r>
   </si>
   <si>
-    <t>29M1</t>
-  </si>
-  <si>
-    <t>Cooling Unit</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -906,21 +798,12 @@
     </r>
   </si>
   <si>
-    <t>4A1</t>
-  </si>
-  <si>
     <t>19X4</t>
   </si>
   <si>
     <t>Setpoint</t>
   </si>
   <si>
-    <t>7A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indramat </t>
-  </si>
-  <si>
     <t>19X4-1</t>
   </si>
   <si>
@@ -930,24 +813,12 @@
     <t>E101</t>
   </si>
   <si>
-    <t>8A1</t>
-  </si>
-  <si>
-    <t>LS403C X Axis</t>
-  </si>
-  <si>
     <t>19X4-2</t>
   </si>
   <si>
     <t>E102</t>
   </si>
   <si>
-    <t>9A1</t>
-  </si>
-  <si>
-    <t>LS403C Y Axis</t>
-  </si>
-  <si>
     <t>19X4-3</t>
   </si>
   <si>
@@ -957,12 +828,6 @@
     <t>E201</t>
   </si>
   <si>
-    <t>10A1</t>
-  </si>
-  <si>
-    <t>LS403C Z Axis</t>
-  </si>
-  <si>
     <t>19X4-4</t>
   </si>
   <si>
@@ -978,19 +843,7 @@
     <t>E301</t>
   </si>
   <si>
-    <t>19A1</t>
-  </si>
-  <si>
-    <t>TNC 355</t>
-  </si>
-  <si>
     <t>19X4-6</t>
-  </si>
-  <si>
-    <t>19A2</t>
-  </si>
-  <si>
-    <t>Monitor</t>
   </si>
   <si>
     <t>19X4-7</t>
@@ -1060,7 +913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1084,24 +937,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1216,14 +1053,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFD9D9D9"/>
       <name val="Source Sans Pro"/>
@@ -1240,7 +1069,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,12 +1096,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5983B0"/>
-        <bgColor rgb="FF7F7F7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
@@ -1284,7 +1107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1311,37 +1134,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1353,210 +1145,95 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1944,816 +1621,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AMH46"/>
+  <dimension ref="A2:AMD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="7" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="6"/>
-    <col min="14" max="1022" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="10" max="1018" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8">
+        <v>278</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="17">
-        <v>278</v>
-      </c>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="12" t="s">
+      <c r="F4" s="8">
+        <v>279</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="F5" s="8">
+        <v>280</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="17">
-        <v>279</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="F6" s="14">
+        <v>200</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="17">
-        <v>280</v>
-      </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="F6" s="24" t="s">
+      <c r="F7" s="14">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="E8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="27">
-        <v>200</v>
-      </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="F8" s="14">
+        <v>212</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="E9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="F9" s="14">
+        <v>213</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="D10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="27">
-        <v>211</v>
-      </c>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
+      <c r="E10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="F8" s="24" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="27">
-        <v>212</v>
-      </c>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="F9" s="24" t="s">
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="24" t="s">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="C14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="27">
-        <v>213</v>
-      </c>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="21" t="s">
+      <c r="G14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="13" t="s">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="G15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="37" t="s">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="24" t="s">
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="39" t="s">
+      <c r="G16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="40" t="s">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="G17" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="12" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="F13" s="10" t="s">
+      <c r="C18" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="D18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="G18" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="25">
+        <v>313</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="F14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="E28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="F17" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="F29" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="44" t="s">
+      <c r="E34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="33" t="s">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="44" t="s">
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="46">
-        <v>313</v>
-      </c>
-      <c r="K21" s="27" t="s">
+      <c r="C39" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="45" t="s">
+      <c r="C40" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="C42" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="45" t="s">
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="C43" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="24" t="s">
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="C44" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="28" t="s">
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="C45" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="45" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F34" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F36" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F37" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F38" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F39" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F42" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F43" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F45" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F46" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" s="44"/>
+      <c r="C46" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
